--- a/players_stats/Dominique Jones.xlsx
+++ b/players_stats/Dominique Jones.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1997-98</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,90 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="K2" t="n">
+        <v>14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>14</v>
+      </c>
+      <c r="R2" t="n">
+        <v>41</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="U2" t="n">
+        <v>14</v>
+      </c>
+      <c r="V2" t="n">
+        <v>17</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.8240000000000001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="n">
         <v>19</v>
       </c>
-      <c r="L2" t="n">
-        <v>57</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>23</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>13</v>
-      </c>
-      <c r="R2" t="n">
-        <v>34</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>6</v>
-      </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB2" t="n">
         <v>5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2</v>
       </c>
       <c r="AC2" t="n">
         <v>3</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -662,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -674,111 +676,361 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>268</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29</v>
+      </c>
+      <c r="L3" t="n">
+        <v>73</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>65</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="U3" t="n">
+        <v>29</v>
+      </c>
+      <c r="V3" t="n">
+        <v>37</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>88</v>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 193</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2012-13</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>338</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L4" t="n">
+        <v>109</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>39</v>
+      </c>
+      <c r="R4" t="n">
+        <v>100</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.3720000000000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>35</v>
+      </c>
+      <c r="V4" t="n">
+        <v>53</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>83</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>116</v>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 193</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>91</v>
-      </c>
-      <c r="K3" t="n">
-        <v>19</v>
-      </c>
-      <c r="L3" t="n">
-        <v>57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>23</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>13</v>
-      </c>
-      <c r="R3" t="n">
-        <v>34</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>741</v>
+      </c>
+      <c r="K5" t="n">
+        <v>83</v>
+      </c>
+      <c r="L5" t="n">
+        <v>227</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="N5" t="n">
         <v>2</v>
       </c>
-      <c r="AC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 203</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 99 </t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="O5" t="n">
+        <v>21</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>81</v>
+      </c>
+      <c r="R5" t="n">
+        <v>206</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="U5" t="n">
+        <v>78</v>
+      </c>
+      <c r="V5" t="n">
+        <v>107</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.7290000000000001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>144</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>76</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>64</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>246</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 193</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
+      <c r="AJ5" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
